--- a/code/experiment.xlsx
+++ b/code/experiment.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="22">
   <si>
     <t>State</t>
   </si>
@@ -31,9 +31,6 @@
     <t>robustness</t>
   </si>
   <si>
-    <t>cost</t>
-  </si>
-  <si>
     <t>[0,1,1,1]</t>
   </si>
   <si>
@@ -43,13 +40,46 @@
     <t>num_plannedEV</t>
   </si>
   <si>
-    <t>[0,]</t>
-  </si>
-  <si>
     <t>Scheme</t>
   </si>
   <si>
     <t>Car</t>
+  </si>
+  <si>
+    <t>[0,4,4,4]</t>
+  </si>
+  <si>
+    <t>[0,7,7,7]</t>
+  </si>
+  <si>
+    <t>[0,1,4,7]</t>
+  </si>
+  <si>
+    <t>151130_1k_1k_0111</t>
+  </si>
+  <si>
+    <t>151130_1k_1k_0444</t>
+  </si>
+  <si>
+    <t>151130_1k_1k_0777</t>
+  </si>
+  <si>
+    <t>151130_1k_1k_0147</t>
+  </si>
+  <si>
+    <t>151130_1k_50_0147</t>
+  </si>
+  <si>
+    <t>151130_1k_100_0147</t>
+  </si>
+  <si>
+    <t>151130_1k_300_0147</t>
+  </si>
+  <si>
+    <t>151130_1k_500_0147</t>
+  </si>
+  <si>
+    <t>cost minimization</t>
   </si>
 </sst>
 </file>
@@ -391,34 +421,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.44140625" customWidth="1"/>
+    <col min="1" max="1" width="19.44140625" customWidth="1"/>
     <col min="2" max="3" width="14.77734375" customWidth="1"/>
     <col min="4" max="4" width="9.6640625" customWidth="1"/>
+    <col min="7" max="7" width="10.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
       <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" t="s">
-        <v>10</v>
-      </c>
       <c r="E1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F1" t="s">
         <v>0</v>
@@ -427,7 +458,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
       <c r="B2">
         <v>1000</v>
       </c>
@@ -435,7 +469,7 @@
         <v>1000</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -447,7 +481,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
       <c r="B3">
         <v>1000</v>
       </c>
@@ -455,7 +492,7 @@
         <v>1000</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -463,16 +500,22 @@
       <c r="F3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
       <c r="B4">
         <v>1000</v>
       </c>
       <c r="C4">
         <v>1000</v>
       </c>
-      <c r="D4">
-        <v>0</v>
+      <c r="D4" t="s">
+        <v>11</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -480,16 +523,22 @@
       <c r="F4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
       <c r="B5">
         <v>1000</v>
       </c>
       <c r="C5">
         <v>1000</v>
       </c>
-      <c r="D5">
-        <v>0</v>
+      <c r="D5" t="s">
+        <v>12</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -497,16 +546,25 @@
       <c r="F5" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
       <c r="B6">
         <v>1000</v>
       </c>
       <c r="C6">
-        <v>1000</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
+        <v>50</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -514,16 +572,25 @@
       <c r="F6" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
       <c r="B7">
         <v>1000</v>
       </c>
       <c r="C7">
-        <v>1000</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -531,16 +598,25 @@
       <c r="F7" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
       <c r="B8">
         <v>1000</v>
       </c>
       <c r="C8">
-        <v>50</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
+        <v>300</v>
+      </c>
+      <c r="D8" t="s">
+        <v>12</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -549,18 +625,24 @@
         <v>1</v>
       </c>
       <c r="G8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="H8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
       <c r="B9">
         <v>1000</v>
       </c>
       <c r="C9">
-        <v>100</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
+        <v>500</v>
+      </c>
+      <c r="D9" t="s">
+        <v>12</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -569,47 +651,10 @@
         <v>1</v>
       </c>
       <c r="G9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B10">
-        <v>1000</v>
-      </c>
-      <c r="C10">
-        <v>300</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>2</v>
-      </c>
-      <c r="F10" t="s">
-        <v>1</v>
-      </c>
-      <c r="G10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B11">
-        <v>1000</v>
-      </c>
-      <c r="C11">
-        <v>500</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>2</v>
-      </c>
-      <c r="F11" t="s">
-        <v>1</v>
-      </c>
-      <c r="G11" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="H9" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
